--- a/phone number.xlsx
+++ b/phone number.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subhradip\Desktop\All documents\All_Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Loan Amount" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author>Subhradip Sinha</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>Arunika</t>
   </si>
@@ -383,19 +388,22 @@
   </si>
   <si>
     <t>Weekly</t>
+  </si>
+  <si>
+    <t>Boni</t>
+  </si>
+  <si>
+    <t>konnagar</t>
+  </si>
+  <si>
+    <t>9831570768/7980872709</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,157 +493,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -647,7 +504,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,7 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,194 +553,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -917,257 +588,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1176,9 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1250,62 +673,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1590,865 +976,874 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="18.2857142857143" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="11">
         <v>7595884724</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>9007364863</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>7980877473</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>8013827185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13">
         <v>9674919435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
         <v>8481968598</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
         <v>9836112567</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>9123756585</v>
       </c>
     </row>
-    <row r="10" ht="24" spans="1:3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" ht="24.75">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <v>8961322899</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <v>7655971357</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
         <v>8016018065</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>8013490572</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>9163774533</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>7980384668</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="24" spans="1:3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:3" ht="24">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>9903466208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>9748621554</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="11">
         <v>8017390511</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>7003757906</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>9123943760</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>8621814086</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>8013200134</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>9903015786</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>6290405320</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>7003532116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>9836184266</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" ht="25.5" spans="1:3">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:3" ht="26.25">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>8240502646</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>7908851052</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="11">
         <v>8240585551</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>8910325943</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="20">
         <v>9051878947</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>9163354562</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>8420935157</v>
       </c>
     </row>
-    <row r="37" ht="25.5" spans="1:3">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:3" ht="26.25">
+      <c r="A37" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="25">
         <v>9152169627</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <v>7980306056</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="25">
         <v>6289793361</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="26">
         <v>9330945548</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="26">
         <v>9674315388</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="26">
         <v>8017417013</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="26">
         <v>7477870601</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="26">
         <v>9732623429</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="26">
         <v>8001114292</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="26">
         <v>9831677816</v>
       </c>
     </row>
-    <row r="48" ht="30" spans="1:3">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <v>9830160239</v>
       </c>
     </row>
-    <row r="49" ht="30" spans="1:3">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="26">
         <v>7003415359</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="29">
         <v>8539975277</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>7980743639</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="26">
         <v>6399370652</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="26">
         <v>8337099697</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="26">
         <v>9830806949</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:3">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="33" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="26">
         <v>9609653305</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="34">
         <v>9062692440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="12.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="30" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>100000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>17.05</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3">
         <f>A3*B3/100</f>
         <v>17050</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4">
         <f>A3+D4</f>
         <v>117050</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <f>E5/C3</f>
-        <v>9754.16666666667</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>9754.1666666666661</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6">
         <f>F6/4</f>
-        <v>2438.54166666667</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:7">
-      <c r="A11" s="8" t="s">
+        <v>2438.5416666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5">
+      <c r="A11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>50000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>24</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
         <f>A13*B13/100</f>
         <v>5000</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4">
         <f>A13+D14</f>
         <v>55000</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5">
         <f>E15/C13</f>
-        <v>2291.66666666667</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>2291.6666666666665</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6">
         <f>F16/4</f>
-        <v>572.916666666667</v>
+        <v>572.91666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +1852,6 @@
     <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>